--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AEA3F5-B405-4847-9BE3-3245EBF33FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="135" windowWidth="16845" windowHeight="11295" tabRatio="822"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10103(TOPメニュー)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103(TOPメニュー)'!$A$1:$AI$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103(TOPメニュー)'!$A$1:$AI$136</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -29,17 +30,27 @@
     <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
     <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V43" authorId="0">
+    <comment ref="V43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0">
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U50" authorId="0">
+    <comment ref="U50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z50" authorId="0">
+    <comment ref="Z50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R64" authorId="0">
+    <comment ref="R64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0">
+    <comment ref="Z64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE64" authorId="0">
+    <comment ref="AE64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G74" authorId="0">
+    <comment ref="G74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1304,37 +1315,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2.6.2. 顧客登録イベント</t>
-    <rPh sb="7" eb="9">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.3. 顧客検索イベント</t>
-    <rPh sb="7" eb="9">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.4. プロジェクト検索イベント</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.5. プロジェクト登録イベント</t>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>・ユーザ別従事プロジェクト抽出指示</t>
     <rPh sb="15" eb="17">
       <t>シジ</t>
@@ -1377,6 +1357,37 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.2. プロジェクト検索イベント</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.3. プロジェクト登録イベント</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.4. 顧客検索イベント</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.5. 顧客登録イベント</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1384,7 +1395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2882,17 +2893,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="7"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 13" xfId="8"/>
-    <cellStyle name="標準 2 2" xfId="10"/>
-    <cellStyle name="標準 2 3" xfId="9"/>
-    <cellStyle name="標準_~6362950" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 13" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_~6362950" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2905,6 +2916,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2927,22 +2941,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11355" name="Group 17"/>
+        <xdr:cNvPr id="11355" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B2C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11276" name="Text Box 12"/>
+          <xdr:cNvPr id="11276" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3026,7 +3052,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11277" name="Text Box 13"/>
+          <xdr:cNvPr id="11277" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3126,7 +3158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11282" name="Text Box 18"/>
+        <xdr:cNvPr id="11282" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000122C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3294,7 +3332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3332,7 +3376,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -3361,7 +3411,6 @@
           <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3443,26 +3492,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="571500" y="18640425"/>
-          <a:ext cx="6819900" cy="2038350"/>
+          <a:off x="613410" y="16181070"/>
+          <a:ext cx="7322820" cy="3836670"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3496,83 +3551,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="571500" y="14706600"/>
-          <a:ext cx="6819900" cy="2971800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3742"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="7" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10610850" y="15001875"/>
-          <a:ext cx="1466850" cy="685800"/>
+          <a:off x="10965180" y="16518255"/>
+          <a:ext cx="1571625" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3593,119 +3599,6 @@
           <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>2019</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>月版では未実装</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10620375" y="18716625"/>
-          <a:ext cx="1466850" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 58899"/>
-            <a:gd name="adj2" fmla="val -2387"/>
-            <a:gd name="adj3" fmla="val 120000"/>
-            <a:gd name="adj4" fmla="val -57093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4153,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4161,42 +4054,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4207,7 +4100,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4216,7 +4109,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4228,7 +4121,7 @@
       <c r="K25" s="148"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4237,7 +4130,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4246,7 +4139,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4255,7 +4148,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -4263,7 +4156,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4272,7 +4165,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4281,7 +4174,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4290,7 +4183,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -4302,7 +4195,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -4317,515 +4210,515 @@
       <c r="R34" s="87"/>
       <c r="S34" s="87"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
       <c r="S35" s="87"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="88"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="88"/>
       <c r="R36" s="87"/>
       <c r="S36" s="85"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="89"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
       <c r="S37" s="89"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
       <c r="R38" s="90"/>
       <c r="S38" s="90"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="90"/>
       <c r="P39" s="90"/>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" s="90"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4840,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4850,9 +4743,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="28"/>
+    <col min="1" max="16384" width="4.875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6396,7 +6289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6406,142 +6299,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="63" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="48" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="63"/>
-    <col min="257" max="290" width="4.83203125" style="63" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="63"/>
-    <col min="513" max="546" width="4.83203125" style="63" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="63"/>
-    <col min="769" max="802" width="4.83203125" style="63" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="63"/>
-    <col min="1025" max="1058" width="4.83203125" style="63" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="63"/>
-    <col min="1281" max="1314" width="4.83203125" style="63" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="63"/>
-    <col min="1537" max="1570" width="4.83203125" style="63" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="63"/>
-    <col min="1793" max="1826" width="4.83203125" style="63" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="63"/>
-    <col min="2049" max="2082" width="4.83203125" style="63" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="63"/>
-    <col min="2305" max="2338" width="4.83203125" style="63" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="63"/>
-    <col min="2561" max="2594" width="4.83203125" style="63" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="63"/>
-    <col min="2817" max="2850" width="4.83203125" style="63" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="63"/>
-    <col min="3073" max="3106" width="4.83203125" style="63" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="63"/>
-    <col min="3329" max="3362" width="4.83203125" style="63" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="63"/>
-    <col min="3585" max="3618" width="4.83203125" style="63" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="63"/>
-    <col min="3841" max="3874" width="4.83203125" style="63" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="63"/>
-    <col min="4097" max="4130" width="4.83203125" style="63" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="63"/>
-    <col min="4353" max="4386" width="4.83203125" style="63" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="63"/>
-    <col min="4609" max="4642" width="4.83203125" style="63" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="63"/>
-    <col min="4865" max="4898" width="4.83203125" style="63" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="63"/>
-    <col min="5121" max="5154" width="4.83203125" style="63" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="63"/>
-    <col min="5377" max="5410" width="4.83203125" style="63" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="63"/>
-    <col min="5633" max="5666" width="4.83203125" style="63" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="63"/>
-    <col min="5889" max="5922" width="4.83203125" style="63" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="63"/>
-    <col min="6145" max="6178" width="4.83203125" style="63" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="63"/>
-    <col min="6401" max="6434" width="4.83203125" style="63" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="63"/>
-    <col min="6657" max="6690" width="4.83203125" style="63" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="63"/>
-    <col min="6913" max="6946" width="4.83203125" style="63" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="63"/>
-    <col min="7169" max="7202" width="4.83203125" style="63" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="63"/>
-    <col min="7425" max="7458" width="4.83203125" style="63" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="63"/>
-    <col min="7681" max="7714" width="4.83203125" style="63" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="63"/>
-    <col min="7937" max="7970" width="4.83203125" style="63" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="63"/>
-    <col min="8193" max="8226" width="4.83203125" style="63" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="63"/>
-    <col min="8449" max="8482" width="4.83203125" style="63" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="63"/>
-    <col min="8705" max="8738" width="4.83203125" style="63" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="63"/>
-    <col min="8961" max="8994" width="4.83203125" style="63" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="63"/>
-    <col min="9217" max="9250" width="4.83203125" style="63" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="63"/>
-    <col min="9473" max="9506" width="4.83203125" style="63" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="63"/>
-    <col min="9729" max="9762" width="4.83203125" style="63" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="63"/>
-    <col min="9985" max="10018" width="4.83203125" style="63" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="63"/>
-    <col min="10241" max="10274" width="4.83203125" style="63" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="63"/>
-    <col min="10497" max="10530" width="4.83203125" style="63" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="63"/>
-    <col min="10753" max="10786" width="4.83203125" style="63" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="63"/>
-    <col min="11009" max="11042" width="4.83203125" style="63" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="63"/>
-    <col min="11265" max="11298" width="4.83203125" style="63" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="63"/>
-    <col min="11521" max="11554" width="4.83203125" style="63" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="63"/>
-    <col min="11777" max="11810" width="4.83203125" style="63" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="63"/>
-    <col min="12033" max="12066" width="4.83203125" style="63" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="63"/>
-    <col min="12289" max="12322" width="4.83203125" style="63" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="63"/>
-    <col min="12545" max="12578" width="4.83203125" style="63" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="63"/>
-    <col min="12801" max="12834" width="4.83203125" style="63" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="63"/>
-    <col min="13057" max="13090" width="4.83203125" style="63" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="63"/>
-    <col min="13313" max="13346" width="4.83203125" style="63" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="63"/>
-    <col min="13569" max="13602" width="4.83203125" style="63" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="63"/>
-    <col min="13825" max="13858" width="4.83203125" style="63" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="63"/>
-    <col min="14081" max="14114" width="4.83203125" style="63" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="63"/>
-    <col min="14337" max="14370" width="4.83203125" style="63" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="63"/>
-    <col min="14593" max="14626" width="4.83203125" style="63" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="63"/>
-    <col min="14849" max="14882" width="4.83203125" style="63" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="63"/>
-    <col min="15105" max="15138" width="4.83203125" style="63" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="63"/>
-    <col min="15361" max="15394" width="4.83203125" style="63" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="63"/>
-    <col min="15617" max="15650" width="4.83203125" style="63" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="63"/>
-    <col min="15873" max="15906" width="4.83203125" style="63" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="63"/>
-    <col min="16129" max="16162" width="4.83203125" style="63" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="63"/>
+    <col min="1" max="16" width="4.875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="48" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="63" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="48" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="63"/>
+    <col min="257" max="290" width="4.875" style="63" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="63"/>
+    <col min="513" max="546" width="4.875" style="63" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="63"/>
+    <col min="769" max="802" width="4.875" style="63" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="63"/>
+    <col min="1025" max="1058" width="4.875" style="63" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="63"/>
+    <col min="1281" max="1314" width="4.875" style="63" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="63"/>
+    <col min="1537" max="1570" width="4.875" style="63" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="63"/>
+    <col min="1793" max="1826" width="4.875" style="63" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="63"/>
+    <col min="2049" max="2082" width="4.875" style="63" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="63"/>
+    <col min="2305" max="2338" width="4.875" style="63" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="63"/>
+    <col min="2561" max="2594" width="4.875" style="63" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="63"/>
+    <col min="2817" max="2850" width="4.875" style="63" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="63"/>
+    <col min="3073" max="3106" width="4.875" style="63" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="63"/>
+    <col min="3329" max="3362" width="4.875" style="63" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="63"/>
+    <col min="3585" max="3618" width="4.875" style="63" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="63"/>
+    <col min="3841" max="3874" width="4.875" style="63" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="63"/>
+    <col min="4097" max="4130" width="4.875" style="63" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="63"/>
+    <col min="4353" max="4386" width="4.875" style="63" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="63"/>
+    <col min="4609" max="4642" width="4.875" style="63" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="63"/>
+    <col min="4865" max="4898" width="4.875" style="63" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="63"/>
+    <col min="5121" max="5154" width="4.875" style="63" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="63"/>
+    <col min="5377" max="5410" width="4.875" style="63" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="63"/>
+    <col min="5633" max="5666" width="4.875" style="63" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="63"/>
+    <col min="5889" max="5922" width="4.875" style="63" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="63"/>
+    <col min="6145" max="6178" width="4.875" style="63" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="63"/>
+    <col min="6401" max="6434" width="4.875" style="63" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="63"/>
+    <col min="6657" max="6690" width="4.875" style="63" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="63"/>
+    <col min="6913" max="6946" width="4.875" style="63" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="63"/>
+    <col min="7169" max="7202" width="4.875" style="63" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="63"/>
+    <col min="7425" max="7458" width="4.875" style="63" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="63"/>
+    <col min="7681" max="7714" width="4.875" style="63" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="63"/>
+    <col min="7937" max="7970" width="4.875" style="63" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="63"/>
+    <col min="8193" max="8226" width="4.875" style="63" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="63"/>
+    <col min="8449" max="8482" width="4.875" style="63" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="63"/>
+    <col min="8705" max="8738" width="4.875" style="63" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="63"/>
+    <col min="8961" max="8994" width="4.875" style="63" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="63"/>
+    <col min="9217" max="9250" width="4.875" style="63" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="63"/>
+    <col min="9473" max="9506" width="4.875" style="63" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="63"/>
+    <col min="9729" max="9762" width="4.875" style="63" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="63"/>
+    <col min="9985" max="10018" width="4.875" style="63" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="63"/>
+    <col min="10241" max="10274" width="4.875" style="63" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="63"/>
+    <col min="10497" max="10530" width="4.875" style="63" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="63"/>
+    <col min="10753" max="10786" width="4.875" style="63" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="63"/>
+    <col min="11009" max="11042" width="4.875" style="63" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="63"/>
+    <col min="11265" max="11298" width="4.875" style="63" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="63"/>
+    <col min="11521" max="11554" width="4.875" style="63" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="63"/>
+    <col min="11777" max="11810" width="4.875" style="63" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="63"/>
+    <col min="12033" max="12066" width="4.875" style="63" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="63"/>
+    <col min="12289" max="12322" width="4.875" style="63" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="63"/>
+    <col min="12545" max="12578" width="4.875" style="63" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="63"/>
+    <col min="12801" max="12834" width="4.875" style="63" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="63"/>
+    <col min="13057" max="13090" width="4.875" style="63" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="63"/>
+    <col min="13313" max="13346" width="4.875" style="63" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="63"/>
+    <col min="13569" max="13602" width="4.875" style="63" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="63"/>
+    <col min="13825" max="13858" width="4.875" style="63" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="63"/>
+    <col min="14081" max="14114" width="4.875" style="63" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="63"/>
+    <col min="14337" max="14370" width="4.875" style="63" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="63"/>
+    <col min="14593" max="14626" width="4.875" style="63" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="63"/>
+    <col min="14849" max="14882" width="4.875" style="63" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="63"/>
+    <col min="15105" max="15138" width="4.875" style="63" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="63"/>
+    <col min="15361" max="15394" width="4.875" style="63" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="63"/>
+    <col min="15617" max="15650" width="4.875" style="63" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="63"/>
+    <col min="15873" max="15906" width="4.875" style="63" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="63"/>
+    <col min="16129" max="16162" width="4.875" style="63" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6490,7 @@
       <c r="AH1" s="212"/>
       <c r="AI1" s="213"/>
     </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
@@ -6647,7 +6540,7 @@
       <c r="AH2" s="212"/>
       <c r="AI2" s="213"/>
     </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
@@ -7602,7 +7495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7612,9 +7505,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="16384" width="4.875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8112,21 +8005,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF133"/>
+  <dimension ref="A1:BF134"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="4.83203125" style="17"/>
-    <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="7" width="4.875" style="17"/>
+    <col min="8" max="9" width="4.875" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="4.875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9470,7 +9363,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="241" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F70" s="242"/>
       <c r="G70" s="242"/>
@@ -9478,7 +9371,7 @@
       <c r="I70" s="242"/>
       <c r="J70" s="243"/>
       <c r="K70" s="241" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L70" s="242"/>
       <c r="M70" s="242"/>
@@ -9925,7 +9818,7 @@
       <c r="E87" s="109"/>
       <c r="F87" s="110"/>
       <c r="G87" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AJ87" s="108"/>
       <c r="AK87" s="108"/>
@@ -10067,7 +9960,7 @@
     </row>
     <row r="92" spans="3:58" x14ac:dyDescent="0.15">
       <c r="D92" s="103" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="3:58" x14ac:dyDescent="0.15">
@@ -10077,7 +9970,7 @@
     </row>
     <row r="96" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F96" s="103" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10145,7 +10038,7 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D99" s="103" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.15">
@@ -10155,7 +10048,7 @@
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F103" s="103" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10223,7 +10116,7 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D106" s="103" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.15">
@@ -10233,75 +10126,18 @@
     </row>
     <row r="110" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F110" s="103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="29"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="G111" s="132"/>
-      <c r="H111" s="132"/>
-      <c r="I111" s="132"/>
-      <c r="J111" s="132"/>
-      <c r="K111" s="132"/>
-      <c r="L111" s="132"/>
-      <c r="M111" s="132"/>
-      <c r="N111" s="132"/>
-      <c r="O111" s="132"/>
-      <c r="P111" s="132"/>
-      <c r="Q111" s="132"/>
-      <c r="R111" s="132"/>
-      <c r="S111" s="132"/>
-      <c r="T111" s="132"/>
-      <c r="U111" s="132"/>
-      <c r="V111" s="132"/>
-      <c r="W111" s="132"/>
-      <c r="X111" s="132"/>
-      <c r="Y111" s="132"/>
-      <c r="Z111" s="132"/>
-      <c r="AA111" s="132"/>
-      <c r="AB111" s="132"/>
-      <c r="AC111" s="132"/>
-      <c r="AD111" s="130"/>
-      <c r="AE111" s="130"/>
-      <c r="AF111" s="130"/>
-      <c r="AG111" s="130"/>
-      <c r="AH111" s="130"/>
-      <c r="AI111" s="130"/>
-      <c r="AJ111" s="113"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="F111" s="103"/>
     </row>
     <row r="112" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E112" s="109"/>
-      <c r="AJ112" s="108"/>
-      <c r="AK112" s="108"/>
-      <c r="AL112" s="108"/>
-      <c r="AM112" s="108"/>
-      <c r="AN112" s="108"/>
-      <c r="AO112" s="108"/>
-      <c r="AP112" s="108"/>
-      <c r="AQ112" s="108"/>
-      <c r="AR112" s="108"/>
-      <c r="AS112" s="108"/>
-      <c r="AT112" s="108"/>
-      <c r="AU112" s="108"/>
-      <c r="AV112" s="108"/>
-      <c r="AW112" s="108"/>
-      <c r="AX112" s="108"/>
-      <c r="AY112" s="108"/>
-      <c r="AZ112" s="108"/>
-      <c r="BA112" s="108"/>
-      <c r="BB112" s="108"/>
-      <c r="BC112" s="108"/>
-      <c r="BD112" s="108"/>
-      <c r="BE112" s="108"/>
-      <c r="BF112" s="108"/>
+      <c r="F112" s="103"/>
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D113" s="103" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.15">
@@ -10311,7 +10147,7 @@
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F117" s="103" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10352,197 +10188,223 @@
       <c r="AJ118" s="113"/>
     </row>
     <row r="119" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="D119" s="103" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E121" s="17" t="s">
+      <c r="E119" s="109"/>
+      <c r="AJ119" s="108"/>
+      <c r="AK119" s="108"/>
+      <c r="AL119" s="108"/>
+      <c r="AM119" s="108"/>
+      <c r="AN119" s="108"/>
+      <c r="AO119" s="108"/>
+      <c r="AP119" s="108"/>
+      <c r="AQ119" s="108"/>
+      <c r="AR119" s="108"/>
+      <c r="AS119" s="108"/>
+      <c r="AT119" s="108"/>
+      <c r="AU119" s="108"/>
+      <c r="AV119" s="108"/>
+      <c r="AW119" s="108"/>
+      <c r="AX119" s="108"/>
+      <c r="AY119" s="108"/>
+      <c r="AZ119" s="108"/>
+      <c r="BA119" s="108"/>
+      <c r="BB119" s="108"/>
+      <c r="BC119" s="108"/>
+      <c r="BD119" s="108"/>
+      <c r="BE119" s="108"/>
+      <c r="BF119" s="108"/>
+    </row>
+    <row r="120" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="D120" s="103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E122" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F123" s="103" t="s">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="F124" s="103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="G124" s="132"/>
-      <c r="H124" s="132"/>
-      <c r="I124" s="132"/>
-      <c r="J124" s="132"/>
-      <c r="K124" s="132"/>
-      <c r="L124" s="132"/>
-      <c r="M124" s="132"/>
-      <c r="N124" s="132"/>
-      <c r="O124" s="132"/>
-      <c r="P124" s="132"/>
-      <c r="Q124" s="132"/>
-      <c r="R124" s="132"/>
-      <c r="S124" s="132"/>
-      <c r="T124" s="132"/>
-      <c r="U124" s="132"/>
-      <c r="V124" s="132"/>
-      <c r="W124" s="132"/>
-      <c r="X124" s="132"/>
-      <c r="Y124" s="132"/>
-      <c r="Z124" s="132"/>
-      <c r="AA124" s="132"/>
-      <c r="AB124" s="132"/>
-      <c r="AC124" s="132"/>
-      <c r="AD124" s="130"/>
-      <c r="AE124" s="130"/>
-      <c r="AF124" s="130"/>
-      <c r="AG124" s="130"/>
-      <c r="AH124" s="130"/>
-      <c r="AI124" s="130"/>
-      <c r="AJ124" s="113"/>
-    </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E125" s="109"/>
-      <c r="AJ125" s="108"/>
-      <c r="AK125" s="108"/>
-      <c r="AL125" s="108"/>
-      <c r="AM125" s="108"/>
-      <c r="AN125" s="108"/>
-      <c r="AO125" s="108"/>
-      <c r="AP125" s="108"/>
-      <c r="AQ125" s="108"/>
-      <c r="AR125" s="108"/>
-      <c r="AS125" s="108"/>
-      <c r="AT125" s="108"/>
-      <c r="AU125" s="108"/>
-      <c r="AV125" s="108"/>
-      <c r="AW125" s="108"/>
-      <c r="AX125" s="108"/>
-      <c r="AY125" s="108"/>
-      <c r="AZ125" s="108"/>
-      <c r="BA125" s="108"/>
-      <c r="BB125" s="108"/>
-      <c r="BC125" s="108"/>
-      <c r="BD125" s="108"/>
-      <c r="BE125" s="108"/>
-      <c r="BF125" s="108"/>
+    <row r="125" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="29"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="G125" s="132"/>
+      <c r="H125" s="132"/>
+      <c r="I125" s="132"/>
+      <c r="J125" s="132"/>
+      <c r="K125" s="132"/>
+      <c r="L125" s="132"/>
+      <c r="M125" s="132"/>
+      <c r="N125" s="132"/>
+      <c r="O125" s="132"/>
+      <c r="P125" s="132"/>
+      <c r="Q125" s="132"/>
+      <c r="R125" s="132"/>
+      <c r="S125" s="132"/>
+      <c r="T125" s="132"/>
+      <c r="U125" s="132"/>
+      <c r="V125" s="132"/>
+      <c r="W125" s="132"/>
+      <c r="X125" s="132"/>
+      <c r="Y125" s="132"/>
+      <c r="Z125" s="132"/>
+      <c r="AA125" s="132"/>
+      <c r="AB125" s="132"/>
+      <c r="AC125" s="132"/>
+      <c r="AD125" s="130"/>
+      <c r="AE125" s="130"/>
+      <c r="AF125" s="130"/>
+      <c r="AG125" s="130"/>
+      <c r="AH125" s="130"/>
+      <c r="AI125" s="130"/>
+      <c r="AJ125" s="113"/>
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="D126" s="103" t="s">
+      <c r="E126" s="109"/>
+      <c r="AJ126" s="108"/>
+      <c r="AK126" s="108"/>
+      <c r="AL126" s="108"/>
+      <c r="AM126" s="108"/>
+      <c r="AN126" s="108"/>
+      <c r="AO126" s="108"/>
+      <c r="AP126" s="108"/>
+      <c r="AQ126" s="108"/>
+      <c r="AR126" s="108"/>
+      <c r="AS126" s="108"/>
+      <c r="AT126" s="108"/>
+      <c r="AU126" s="108"/>
+      <c r="AV126" s="108"/>
+      <c r="AW126" s="108"/>
+      <c r="AX126" s="108"/>
+      <c r="AY126" s="108"/>
+      <c r="AZ126" s="108"/>
+      <c r="BA126" s="108"/>
+      <c r="BB126" s="108"/>
+      <c r="BC126" s="108"/>
+      <c r="BD126" s="108"/>
+      <c r="BE126" s="108"/>
+      <c r="BF126" s="108"/>
+    </row>
+    <row r="127" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="D127" s="103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E128" s="17" t="s">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E129" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F130" s="103" t="s">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="F131" s="103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="29"/>
-      <c r="B131" s="106"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="G131" s="132"/>
-      <c r="H131" s="132"/>
-      <c r="I131" s="132"/>
-      <c r="J131" s="132"/>
-      <c r="K131" s="132"/>
-      <c r="L131" s="132"/>
-      <c r="M131" s="132"/>
-      <c r="N131" s="132"/>
-      <c r="O131" s="132"/>
-      <c r="P131" s="132"/>
-      <c r="Q131" s="132"/>
-      <c r="R131" s="132"/>
-      <c r="S131" s="132"/>
-      <c r="T131" s="132"/>
-      <c r="U131" s="132"/>
-      <c r="V131" s="132"/>
-      <c r="W131" s="132"/>
-      <c r="X131" s="132"/>
-      <c r="Y131" s="132"/>
-      <c r="Z131" s="132"/>
-      <c r="AA131" s="132"/>
-      <c r="AB131" s="132"/>
-      <c r="AC131" s="132"/>
-      <c r="AD131" s="130"/>
-      <c r="AE131" s="130"/>
-      <c r="AF131" s="130"/>
-      <c r="AG131" s="130"/>
-      <c r="AH131" s="130"/>
-      <c r="AI131" s="130"/>
-      <c r="AJ131" s="113"/>
-    </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E132" s="109"/>
-      <c r="AJ132" s="108"/>
-      <c r="AK132" s="108"/>
-      <c r="AL132" s="108"/>
-      <c r="AM132" s="108"/>
-      <c r="AN132" s="108"/>
-      <c r="AO132" s="108"/>
-      <c r="AP132" s="108"/>
-      <c r="AQ132" s="108"/>
-      <c r="AR132" s="108"/>
-      <c r="AS132" s="108"/>
-      <c r="AT132" s="108"/>
-      <c r="AU132" s="108"/>
-      <c r="AV132" s="108"/>
-      <c r="AW132" s="108"/>
-      <c r="AX132" s="108"/>
-      <c r="AY132" s="108"/>
-      <c r="AZ132" s="108"/>
-      <c r="BA132" s="108"/>
-      <c r="BB132" s="108"/>
-      <c r="BC132" s="108"/>
-      <c r="BD132" s="108"/>
-      <c r="BE132" s="108"/>
-      <c r="BF132" s="108"/>
-    </row>
-    <row r="133" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29"/>
-      <c r="B133" s="106"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="G133" s="132"/>
-      <c r="H133" s="132"/>
-      <c r="I133" s="132"/>
-      <c r="J133" s="132"/>
-      <c r="K133" s="132"/>
-      <c r="L133" s="132"/>
-      <c r="M133" s="132"/>
-      <c r="N133" s="132"/>
-      <c r="O133" s="132"/>
-      <c r="P133" s="132"/>
-      <c r="Q133" s="132"/>
-      <c r="R133" s="132"/>
-      <c r="S133" s="132"/>
-      <c r="T133" s="132"/>
-      <c r="U133" s="132"/>
-      <c r="V133" s="132"/>
-      <c r="W133" s="132"/>
-      <c r="X133" s="132"/>
-      <c r="Y133" s="132"/>
-      <c r="Z133" s="132"/>
-      <c r="AA133" s="132"/>
-      <c r="AB133" s="132"/>
-      <c r="AC133" s="132"/>
-      <c r="AD133" s="130"/>
-      <c r="AE133" s="130"/>
-      <c r="AF133" s="130"/>
-      <c r="AG133" s="130"/>
-      <c r="AH133" s="130"/>
-      <c r="AI133" s="130"/>
-      <c r="AJ133" s="113"/>
+    <row r="132" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="29"/>
+      <c r="B132" s="106"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="G132" s="132"/>
+      <c r="H132" s="132"/>
+      <c r="I132" s="132"/>
+      <c r="J132" s="132"/>
+      <c r="K132" s="132"/>
+      <c r="L132" s="132"/>
+      <c r="M132" s="132"/>
+      <c r="N132" s="132"/>
+      <c r="O132" s="132"/>
+      <c r="P132" s="132"/>
+      <c r="Q132" s="132"/>
+      <c r="R132" s="132"/>
+      <c r="S132" s="132"/>
+      <c r="T132" s="132"/>
+      <c r="U132" s="132"/>
+      <c r="V132" s="132"/>
+      <c r="W132" s="132"/>
+      <c r="X132" s="132"/>
+      <c r="Y132" s="132"/>
+      <c r="Z132" s="132"/>
+      <c r="AA132" s="132"/>
+      <c r="AB132" s="132"/>
+      <c r="AC132" s="132"/>
+      <c r="AD132" s="130"/>
+      <c r="AE132" s="130"/>
+      <c r="AF132" s="130"/>
+      <c r="AG132" s="130"/>
+      <c r="AH132" s="130"/>
+      <c r="AI132" s="130"/>
+      <c r="AJ132" s="113"/>
+    </row>
+    <row r="133" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E133" s="109"/>
+      <c r="AJ133" s="108"/>
+      <c r="AK133" s="108"/>
+      <c r="AL133" s="108"/>
+      <c r="AM133" s="108"/>
+      <c r="AN133" s="108"/>
+      <c r="AO133" s="108"/>
+      <c r="AP133" s="108"/>
+      <c r="AQ133" s="108"/>
+      <c r="AR133" s="108"/>
+      <c r="AS133" s="108"/>
+      <c r="AT133" s="108"/>
+      <c r="AU133" s="108"/>
+      <c r="AV133" s="108"/>
+      <c r="AW133" s="108"/>
+      <c r="AX133" s="108"/>
+      <c r="AY133" s="108"/>
+      <c r="AZ133" s="108"/>
+      <c r="BA133" s="108"/>
+      <c r="BB133" s="108"/>
+      <c r="BC133" s="108"/>
+      <c r="BD133" s="108"/>
+      <c r="BE133" s="108"/>
+      <c r="BF133" s="108"/>
+    </row>
+    <row r="134" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="29"/>
+      <c r="B134" s="106"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="G134" s="132"/>
+      <c r="H134" s="132"/>
+      <c r="I134" s="132"/>
+      <c r="J134" s="132"/>
+      <c r="K134" s="132"/>
+      <c r="L134" s="132"/>
+      <c r="M134" s="132"/>
+      <c r="N134" s="132"/>
+      <c r="O134" s="132"/>
+      <c r="P134" s="132"/>
+      <c r="Q134" s="132"/>
+      <c r="R134" s="132"/>
+      <c r="S134" s="132"/>
+      <c r="T134" s="132"/>
+      <c r="U134" s="132"/>
+      <c r="V134" s="132"/>
+      <c r="W134" s="132"/>
+      <c r="X134" s="132"/>
+      <c r="Y134" s="132"/>
+      <c r="Z134" s="132"/>
+      <c r="AA134" s="132"/>
+      <c r="AB134" s="132"/>
+      <c r="AC134" s="132"/>
+      <c r="AD134" s="130"/>
+      <c r="AE134" s="130"/>
+      <c r="AF134" s="130"/>
+      <c r="AG134" s="130"/>
+      <c r="AH134" s="130"/>
+      <c r="AI134" s="130"/>
+      <c r="AJ134" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -10639,19 +10501,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"-,有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC52 P59:U59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC52 P59:U59" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"-,○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>画面項目種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K59:N59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K59:N59" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O59" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10664,14 +10526,14 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="33" man="1"/>
     <brk id="73" max="16383" man="1"/>
-    <brk id="118" max="16383" man="1"/>
+    <brk id="119" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>データ!$D$2:$D$4</xm:f>
           </x14:formula1>
@@ -10684,7 +10546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10692,13 +10554,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="28"/>
+    <col min="3" max="3" width="16.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AEA3F5-B405-4847-9BE3-3245EBF33FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="135" windowWidth="16845" windowHeight="11295" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10103(TOPメニュー)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103(TOPメニュー)'!$A$1:$AI$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103(TOPメニュー)'!$A$1:$AI$135</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -30,27 +29,17 @@
     <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
     <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="V43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="I50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="U50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="Z50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="G62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="R64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="Z64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="AE64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1315,6 +1304,37 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>2.6.2. 顧客登録イベント</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.3. 顧客検索イベント</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.4. プロジェクト検索イベント</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.5. プロジェクト登録イベント</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>・ユーザ別従事プロジェクト抽出指示</t>
     <rPh sb="15" eb="17">
       <t>シジ</t>
@@ -1357,37 +1377,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.2. プロジェクト検索イベント</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.3. プロジェクト登録イベント</t>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.4. 顧客検索イベント</t>
-    <rPh sb="7" eb="9">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.5. 顧客登録イベント</t>
-    <rPh sb="7" eb="9">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1395,7 +1384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2893,17 +2882,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="パーセント 2" xfId="6"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 2 13" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準_~6362950" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 10" xfId="7"/>
+    <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="標準 2 13" xfId="8"/>
+    <cellStyle name="標準 2 2" xfId="10"/>
+    <cellStyle name="標準 2 3" xfId="9"/>
+    <cellStyle name="標準_~6362950" xfId="4"/>
+    <cellStyle name="標準_画面標準" xfId="1"/>
+    <cellStyle name="標準_画面標準定義" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2916,9 +2905,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2941,34 +2927,22 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11355" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B2C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11355" name="Group 17"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8496300" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11276" name="Text Box 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C2C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="11276" name="Text Box 12"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3052,13 +3026,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11277" name="Text Box 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D2C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="11277" name="Text Box 13"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3158,13 +3126,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11282" name="Text Box 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000122C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11282" name="Text Box 18"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3332,13 +3294,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3376,13 +3332,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -3411,6 +3361,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
+        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3492,32 +3443,26 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="613410" y="16181070"/>
-          <a:ext cx="7322820" cy="3836670"/>
+          <a:off x="571500" y="18640425"/>
+          <a:ext cx="6819900" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3551,34 +3496,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>55245</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="14706600"/>
+          <a:ext cx="6819900" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10965180" y="16518255"/>
-          <a:ext cx="1571625" cy="581025"/>
+          <a:off x="10610850" y="15001875"/>
+          <a:ext cx="1466850" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3599,6 +3593,119 @@
           <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10620375" y="18716625"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4046,7 +4153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4054,42 +4161,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4100,7 +4207,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4109,7 +4216,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4121,7 +4228,7 @@
       <c r="K25" s="148"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4130,7 +4237,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4139,7 +4246,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4148,7 +4255,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -4156,7 +4263,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4165,7 +4272,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4174,7 +4281,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4183,7 +4290,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -4195,7 +4302,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -4210,515 +4317,515 @@
       <c r="R34" s="87"/>
       <c r="S34" s="87"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
       <c r="S35" s="87"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="88"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="88"/>
       <c r="R36" s="87"/>
       <c r="S36" s="85"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="89"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
       <c r="S37" s="89"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
       <c r="R38" s="90"/>
       <c r="S38" s="90"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="90"/>
       <c r="P39" s="90"/>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" s="90"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4733,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4743,9 +4850,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="28"/>
+    <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6289,7 +6396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6299,142 +6406,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="63" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="48" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="63" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="48" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="63"/>
-    <col min="257" max="290" width="4.875" style="63" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="63"/>
-    <col min="513" max="546" width="4.875" style="63" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="63"/>
-    <col min="769" max="802" width="4.875" style="63" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="63"/>
-    <col min="1025" max="1058" width="4.875" style="63" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="63"/>
-    <col min="1281" max="1314" width="4.875" style="63" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="63"/>
-    <col min="1537" max="1570" width="4.875" style="63" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="63"/>
-    <col min="1793" max="1826" width="4.875" style="63" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="63"/>
-    <col min="2049" max="2082" width="4.875" style="63" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="63"/>
-    <col min="2305" max="2338" width="4.875" style="63" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="63"/>
-    <col min="2561" max="2594" width="4.875" style="63" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="63"/>
-    <col min="2817" max="2850" width="4.875" style="63" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="63"/>
-    <col min="3073" max="3106" width="4.875" style="63" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="63"/>
-    <col min="3329" max="3362" width="4.875" style="63" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="63"/>
-    <col min="3585" max="3618" width="4.875" style="63" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="63"/>
-    <col min="3841" max="3874" width="4.875" style="63" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="63"/>
-    <col min="4097" max="4130" width="4.875" style="63" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="63"/>
-    <col min="4353" max="4386" width="4.875" style="63" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="63"/>
-    <col min="4609" max="4642" width="4.875" style="63" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="63"/>
-    <col min="4865" max="4898" width="4.875" style="63" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="63"/>
-    <col min="5121" max="5154" width="4.875" style="63" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="63"/>
-    <col min="5377" max="5410" width="4.875" style="63" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="63"/>
-    <col min="5633" max="5666" width="4.875" style="63" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="63"/>
-    <col min="5889" max="5922" width="4.875" style="63" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="63"/>
-    <col min="6145" max="6178" width="4.875" style="63" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="63"/>
-    <col min="6401" max="6434" width="4.875" style="63" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="63"/>
-    <col min="6657" max="6690" width="4.875" style="63" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="63"/>
-    <col min="6913" max="6946" width="4.875" style="63" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="63"/>
-    <col min="7169" max="7202" width="4.875" style="63" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="63"/>
-    <col min="7425" max="7458" width="4.875" style="63" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="63"/>
-    <col min="7681" max="7714" width="4.875" style="63" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="63"/>
-    <col min="7937" max="7970" width="4.875" style="63" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="63"/>
-    <col min="8193" max="8226" width="4.875" style="63" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="63"/>
-    <col min="8449" max="8482" width="4.875" style="63" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="63"/>
-    <col min="8705" max="8738" width="4.875" style="63" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="63"/>
-    <col min="8961" max="8994" width="4.875" style="63" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="63"/>
-    <col min="9217" max="9250" width="4.875" style="63" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="63"/>
-    <col min="9473" max="9506" width="4.875" style="63" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="63"/>
-    <col min="9729" max="9762" width="4.875" style="63" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="63"/>
-    <col min="9985" max="10018" width="4.875" style="63" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="63"/>
-    <col min="10241" max="10274" width="4.875" style="63" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="63"/>
-    <col min="10497" max="10530" width="4.875" style="63" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="63"/>
-    <col min="10753" max="10786" width="4.875" style="63" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="63"/>
-    <col min="11009" max="11042" width="4.875" style="63" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="63"/>
-    <col min="11265" max="11298" width="4.875" style="63" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="63"/>
-    <col min="11521" max="11554" width="4.875" style="63" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="63"/>
-    <col min="11777" max="11810" width="4.875" style="63" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="63"/>
-    <col min="12033" max="12066" width="4.875" style="63" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="63"/>
-    <col min="12289" max="12322" width="4.875" style="63" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="63"/>
-    <col min="12545" max="12578" width="4.875" style="63" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="63"/>
-    <col min="12801" max="12834" width="4.875" style="63" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="63"/>
-    <col min="13057" max="13090" width="4.875" style="63" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="63"/>
-    <col min="13313" max="13346" width="4.875" style="63" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="63"/>
-    <col min="13569" max="13602" width="4.875" style="63" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="63"/>
-    <col min="13825" max="13858" width="4.875" style="63" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="63"/>
-    <col min="14081" max="14114" width="4.875" style="63" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="63"/>
-    <col min="14337" max="14370" width="4.875" style="63" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="63"/>
-    <col min="14593" max="14626" width="4.875" style="63" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="63"/>
-    <col min="14849" max="14882" width="4.875" style="63" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="63"/>
-    <col min="15105" max="15138" width="4.875" style="63" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="63"/>
-    <col min="15361" max="15394" width="4.875" style="63" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="63"/>
-    <col min="15617" max="15650" width="4.875" style="63" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="63"/>
-    <col min="15873" max="15906" width="4.875" style="63" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="63"/>
-    <col min="16129" max="16162" width="4.875" style="63" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="63"/>
+    <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="63" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="48" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="63"/>
+    <col min="257" max="290" width="4.83203125" style="63" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="63"/>
+    <col min="513" max="546" width="4.83203125" style="63" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="63"/>
+    <col min="769" max="802" width="4.83203125" style="63" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="63"/>
+    <col min="1025" max="1058" width="4.83203125" style="63" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="63"/>
+    <col min="1281" max="1314" width="4.83203125" style="63" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="63"/>
+    <col min="1537" max="1570" width="4.83203125" style="63" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="63"/>
+    <col min="1793" max="1826" width="4.83203125" style="63" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="63"/>
+    <col min="2049" max="2082" width="4.83203125" style="63" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="63"/>
+    <col min="2305" max="2338" width="4.83203125" style="63" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="63"/>
+    <col min="2561" max="2594" width="4.83203125" style="63" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="63"/>
+    <col min="2817" max="2850" width="4.83203125" style="63" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="63"/>
+    <col min="3073" max="3106" width="4.83203125" style="63" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="63"/>
+    <col min="3329" max="3362" width="4.83203125" style="63" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="63"/>
+    <col min="3585" max="3618" width="4.83203125" style="63" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="63"/>
+    <col min="3841" max="3874" width="4.83203125" style="63" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="63"/>
+    <col min="4097" max="4130" width="4.83203125" style="63" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="63"/>
+    <col min="4353" max="4386" width="4.83203125" style="63" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="63"/>
+    <col min="4609" max="4642" width="4.83203125" style="63" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="63"/>
+    <col min="4865" max="4898" width="4.83203125" style="63" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="63"/>
+    <col min="5121" max="5154" width="4.83203125" style="63" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="63"/>
+    <col min="5377" max="5410" width="4.83203125" style="63" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="63"/>
+    <col min="5633" max="5666" width="4.83203125" style="63" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="63"/>
+    <col min="5889" max="5922" width="4.83203125" style="63" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="63"/>
+    <col min="6145" max="6178" width="4.83203125" style="63" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="63"/>
+    <col min="6401" max="6434" width="4.83203125" style="63" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="63"/>
+    <col min="6657" max="6690" width="4.83203125" style="63" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="63"/>
+    <col min="6913" max="6946" width="4.83203125" style="63" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="63"/>
+    <col min="7169" max="7202" width="4.83203125" style="63" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="63"/>
+    <col min="7425" max="7458" width="4.83203125" style="63" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="63"/>
+    <col min="7681" max="7714" width="4.83203125" style="63" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="63"/>
+    <col min="7937" max="7970" width="4.83203125" style="63" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="63"/>
+    <col min="8193" max="8226" width="4.83203125" style="63" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="63"/>
+    <col min="8449" max="8482" width="4.83203125" style="63" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="63"/>
+    <col min="8705" max="8738" width="4.83203125" style="63" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="63"/>
+    <col min="8961" max="8994" width="4.83203125" style="63" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="63"/>
+    <col min="9217" max="9250" width="4.83203125" style="63" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="63"/>
+    <col min="9473" max="9506" width="4.83203125" style="63" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="63"/>
+    <col min="9729" max="9762" width="4.83203125" style="63" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="63"/>
+    <col min="9985" max="10018" width="4.83203125" style="63" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="63"/>
+    <col min="10241" max="10274" width="4.83203125" style="63" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="63"/>
+    <col min="10497" max="10530" width="4.83203125" style="63" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="63"/>
+    <col min="10753" max="10786" width="4.83203125" style="63" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="63"/>
+    <col min="11009" max="11042" width="4.83203125" style="63" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="63"/>
+    <col min="11265" max="11298" width="4.83203125" style="63" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="63"/>
+    <col min="11521" max="11554" width="4.83203125" style="63" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="63"/>
+    <col min="11777" max="11810" width="4.83203125" style="63" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="63"/>
+    <col min="12033" max="12066" width="4.83203125" style="63" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="63"/>
+    <col min="12289" max="12322" width="4.83203125" style="63" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="63"/>
+    <col min="12545" max="12578" width="4.83203125" style="63" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="63"/>
+    <col min="12801" max="12834" width="4.83203125" style="63" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="63"/>
+    <col min="13057" max="13090" width="4.83203125" style="63" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="63"/>
+    <col min="13313" max="13346" width="4.83203125" style="63" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="63"/>
+    <col min="13569" max="13602" width="4.83203125" style="63" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="63"/>
+    <col min="13825" max="13858" width="4.83203125" style="63" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="63"/>
+    <col min="14081" max="14114" width="4.83203125" style="63" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="63"/>
+    <col min="14337" max="14370" width="4.83203125" style="63" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="63"/>
+    <col min="14593" max="14626" width="4.83203125" style="63" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="63"/>
+    <col min="14849" max="14882" width="4.83203125" style="63" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="63"/>
+    <col min="15105" max="15138" width="4.83203125" style="63" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="63"/>
+    <col min="15361" max="15394" width="4.83203125" style="63" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="63"/>
+    <col min="15617" max="15650" width="4.83203125" style="63" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="63"/>
+    <col min="15873" max="15906" width="4.83203125" style="63" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="63"/>
+    <col min="16129" max="16162" width="4.83203125" style="63" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +6597,7 @@
       <c r="AH1" s="212"/>
       <c r="AI1" s="213"/>
     </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
@@ -6540,7 +6647,7 @@
       <c r="AH2" s="212"/>
       <c r="AI2" s="213"/>
     </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
@@ -7495,7 +7602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7505,9 +7612,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="17"/>
+    <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8005,21 +8112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF134"/>
+  <dimension ref="A1:BF133"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="4.875" style="17"/>
-    <col min="8" max="9" width="4.875" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="4.875" style="17"/>
+    <col min="1" max="7" width="4.83203125" style="17"/>
+    <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9363,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="241" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F70" s="242"/>
       <c r="G70" s="242"/>
@@ -9371,7 +9478,7 @@
       <c r="I70" s="242"/>
       <c r="J70" s="243"/>
       <c r="K70" s="241" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L70" s="242"/>
       <c r="M70" s="242"/>
@@ -9818,7 +9925,7 @@
       <c r="E87" s="109"/>
       <c r="F87" s="110"/>
       <c r="G87" s="71" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AJ87" s="108"/>
       <c r="AK87" s="108"/>
@@ -9960,7 +10067,7 @@
     </row>
     <row r="92" spans="3:58" x14ac:dyDescent="0.15">
       <c r="D92" s="103" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="3:58" x14ac:dyDescent="0.15">
@@ -9970,7 +10077,7 @@
     </row>
     <row r="96" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F96" s="103" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10038,7 +10145,7 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D99" s="103" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.15">
@@ -10048,7 +10155,7 @@
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F103" s="103" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10116,7 +10223,7 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D106" s="103" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.15">
@@ -10126,18 +10233,75 @@
     </row>
     <row r="110" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F110" s="103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F111" s="103"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="G111" s="132"/>
+      <c r="H111" s="132"/>
+      <c r="I111" s="132"/>
+      <c r="J111" s="132"/>
+      <c r="K111" s="132"/>
+      <c r="L111" s="132"/>
+      <c r="M111" s="132"/>
+      <c r="N111" s="132"/>
+      <c r="O111" s="132"/>
+      <c r="P111" s="132"/>
+      <c r="Q111" s="132"/>
+      <c r="R111" s="132"/>
+      <c r="S111" s="132"/>
+      <c r="T111" s="132"/>
+      <c r="U111" s="132"/>
+      <c r="V111" s="132"/>
+      <c r="W111" s="132"/>
+      <c r="X111" s="132"/>
+      <c r="Y111" s="132"/>
+      <c r="Z111" s="132"/>
+      <c r="AA111" s="132"/>
+      <c r="AB111" s="132"/>
+      <c r="AC111" s="132"/>
+      <c r="AD111" s="130"/>
+      <c r="AE111" s="130"/>
+      <c r="AF111" s="130"/>
+      <c r="AG111" s="130"/>
+      <c r="AH111" s="130"/>
+      <c r="AI111" s="130"/>
+      <c r="AJ111" s="113"/>
     </row>
     <row r="112" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F112" s="103"/>
+      <c r="E112" s="109"/>
+      <c r="AJ112" s="108"/>
+      <c r="AK112" s="108"/>
+      <c r="AL112" s="108"/>
+      <c r="AM112" s="108"/>
+      <c r="AN112" s="108"/>
+      <c r="AO112" s="108"/>
+      <c r="AP112" s="108"/>
+      <c r="AQ112" s="108"/>
+      <c r="AR112" s="108"/>
+      <c r="AS112" s="108"/>
+      <c r="AT112" s="108"/>
+      <c r="AU112" s="108"/>
+      <c r="AV112" s="108"/>
+      <c r="AW112" s="108"/>
+      <c r="AX112" s="108"/>
+      <c r="AY112" s="108"/>
+      <c r="AZ112" s="108"/>
+      <c r="BA112" s="108"/>
+      <c r="BB112" s="108"/>
+      <c r="BC112" s="108"/>
+      <c r="BD112" s="108"/>
+      <c r="BE112" s="108"/>
+      <c r="BF112" s="108"/>
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D113" s="103" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.15">
@@ -10147,7 +10311,7 @@
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F117" s="103" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
@@ -10188,223 +10352,197 @@
       <c r="AJ118" s="113"/>
     </row>
     <row r="119" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E119" s="109"/>
-      <c r="AJ119" s="108"/>
-      <c r="AK119" s="108"/>
-      <c r="AL119" s="108"/>
-      <c r="AM119" s="108"/>
-      <c r="AN119" s="108"/>
-      <c r="AO119" s="108"/>
-      <c r="AP119" s="108"/>
-      <c r="AQ119" s="108"/>
-      <c r="AR119" s="108"/>
-      <c r="AS119" s="108"/>
-      <c r="AT119" s="108"/>
-      <c r="AU119" s="108"/>
-      <c r="AV119" s="108"/>
-      <c r="AW119" s="108"/>
-      <c r="AX119" s="108"/>
-      <c r="AY119" s="108"/>
-      <c r="AZ119" s="108"/>
-      <c r="BA119" s="108"/>
-      <c r="BB119" s="108"/>
-      <c r="BC119" s="108"/>
-      <c r="BD119" s="108"/>
-      <c r="BE119" s="108"/>
-      <c r="BF119" s="108"/>
-    </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="D120" s="103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E122" s="17" t="s">
+      <c r="D119" s="103" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E121" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F124" s="103" t="s">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="F123" s="103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
-      <c r="B125" s="106"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="G125" s="132"/>
-      <c r="H125" s="132"/>
-      <c r="I125" s="132"/>
-      <c r="J125" s="132"/>
-      <c r="K125" s="132"/>
-      <c r="L125" s="132"/>
-      <c r="M125" s="132"/>
-      <c r="N125" s="132"/>
-      <c r="O125" s="132"/>
-      <c r="P125" s="132"/>
-      <c r="Q125" s="132"/>
-      <c r="R125" s="132"/>
-      <c r="S125" s="132"/>
-      <c r="T125" s="132"/>
-      <c r="U125" s="132"/>
-      <c r="V125" s="132"/>
-      <c r="W125" s="132"/>
-      <c r="X125" s="132"/>
-      <c r="Y125" s="132"/>
-      <c r="Z125" s="132"/>
-      <c r="AA125" s="132"/>
-      <c r="AB125" s="132"/>
-      <c r="AC125" s="132"/>
-      <c r="AD125" s="130"/>
-      <c r="AE125" s="130"/>
-      <c r="AF125" s="130"/>
-      <c r="AG125" s="130"/>
-      <c r="AH125" s="130"/>
-      <c r="AI125" s="130"/>
-      <c r="AJ125" s="113"/>
+    <row r="124" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="29"/>
+      <c r="B124" s="106"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="G124" s="132"/>
+      <c r="H124" s="132"/>
+      <c r="I124" s="132"/>
+      <c r="J124" s="132"/>
+      <c r="K124" s="132"/>
+      <c r="L124" s="132"/>
+      <c r="M124" s="132"/>
+      <c r="N124" s="132"/>
+      <c r="O124" s="132"/>
+      <c r="P124" s="132"/>
+      <c r="Q124" s="132"/>
+      <c r="R124" s="132"/>
+      <c r="S124" s="132"/>
+      <c r="T124" s="132"/>
+      <c r="U124" s="132"/>
+      <c r="V124" s="132"/>
+      <c r="W124" s="132"/>
+      <c r="X124" s="132"/>
+      <c r="Y124" s="132"/>
+      <c r="Z124" s="132"/>
+      <c r="AA124" s="132"/>
+      <c r="AB124" s="132"/>
+      <c r="AC124" s="132"/>
+      <c r="AD124" s="130"/>
+      <c r="AE124" s="130"/>
+      <c r="AF124" s="130"/>
+      <c r="AG124" s="130"/>
+      <c r="AH124" s="130"/>
+      <c r="AI124" s="130"/>
+      <c r="AJ124" s="113"/>
+    </row>
+    <row r="125" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E125" s="109"/>
+      <c r="AJ125" s="108"/>
+      <c r="AK125" s="108"/>
+      <c r="AL125" s="108"/>
+      <c r="AM125" s="108"/>
+      <c r="AN125" s="108"/>
+      <c r="AO125" s="108"/>
+      <c r="AP125" s="108"/>
+      <c r="AQ125" s="108"/>
+      <c r="AR125" s="108"/>
+      <c r="AS125" s="108"/>
+      <c r="AT125" s="108"/>
+      <c r="AU125" s="108"/>
+      <c r="AV125" s="108"/>
+      <c r="AW125" s="108"/>
+      <c r="AX125" s="108"/>
+      <c r="AY125" s="108"/>
+      <c r="AZ125" s="108"/>
+      <c r="BA125" s="108"/>
+      <c r="BB125" s="108"/>
+      <c r="BC125" s="108"/>
+      <c r="BD125" s="108"/>
+      <c r="BE125" s="108"/>
+      <c r="BF125" s="108"/>
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E126" s="109"/>
-      <c r="AJ126" s="108"/>
-      <c r="AK126" s="108"/>
-      <c r="AL126" s="108"/>
-      <c r="AM126" s="108"/>
-      <c r="AN126" s="108"/>
-      <c r="AO126" s="108"/>
-      <c r="AP126" s="108"/>
-      <c r="AQ126" s="108"/>
-      <c r="AR126" s="108"/>
-      <c r="AS126" s="108"/>
-      <c r="AT126" s="108"/>
-      <c r="AU126" s="108"/>
-      <c r="AV126" s="108"/>
-      <c r="AW126" s="108"/>
-      <c r="AX126" s="108"/>
-      <c r="AY126" s="108"/>
-      <c r="AZ126" s="108"/>
-      <c r="BA126" s="108"/>
-      <c r="BB126" s="108"/>
-      <c r="BC126" s="108"/>
-      <c r="BD126" s="108"/>
-      <c r="BE126" s="108"/>
-      <c r="BF126" s="108"/>
-    </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="D127" s="103" t="s">
+      <c r="D126" s="103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E129" s="17" t="s">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E128" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="F131" s="103" t="s">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="F130" s="103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="29"/>
-      <c r="B132" s="106"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="G132" s="132"/>
-      <c r="H132" s="132"/>
-      <c r="I132" s="132"/>
-      <c r="J132" s="132"/>
-      <c r="K132" s="132"/>
-      <c r="L132" s="132"/>
-      <c r="M132" s="132"/>
-      <c r="N132" s="132"/>
-      <c r="O132" s="132"/>
-      <c r="P132" s="132"/>
-      <c r="Q132" s="132"/>
-      <c r="R132" s="132"/>
-      <c r="S132" s="132"/>
-      <c r="T132" s="132"/>
-      <c r="U132" s="132"/>
-      <c r="V132" s="132"/>
-      <c r="W132" s="132"/>
-      <c r="X132" s="132"/>
-      <c r="Y132" s="132"/>
-      <c r="Z132" s="132"/>
-      <c r="AA132" s="132"/>
-      <c r="AB132" s="132"/>
-      <c r="AC132" s="132"/>
-      <c r="AD132" s="130"/>
-      <c r="AE132" s="130"/>
-      <c r="AF132" s="130"/>
-      <c r="AG132" s="130"/>
-      <c r="AH132" s="130"/>
-      <c r="AI132" s="130"/>
-      <c r="AJ132" s="113"/>
-    </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="E133" s="109"/>
-      <c r="AJ133" s="108"/>
-      <c r="AK133" s="108"/>
-      <c r="AL133" s="108"/>
-      <c r="AM133" s="108"/>
-      <c r="AN133" s="108"/>
-      <c r="AO133" s="108"/>
-      <c r="AP133" s="108"/>
-      <c r="AQ133" s="108"/>
-      <c r="AR133" s="108"/>
-      <c r="AS133" s="108"/>
-      <c r="AT133" s="108"/>
-      <c r="AU133" s="108"/>
-      <c r="AV133" s="108"/>
-      <c r="AW133" s="108"/>
-      <c r="AX133" s="108"/>
-      <c r="AY133" s="108"/>
-      <c r="AZ133" s="108"/>
-      <c r="BA133" s="108"/>
-      <c r="BB133" s="108"/>
-      <c r="BC133" s="108"/>
-      <c r="BD133" s="108"/>
-      <c r="BE133" s="108"/>
-      <c r="BF133" s="108"/>
-    </row>
-    <row r="134" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
-      <c r="B134" s="106"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="G134" s="132"/>
-      <c r="H134" s="132"/>
-      <c r="I134" s="132"/>
-      <c r="J134" s="132"/>
-      <c r="K134" s="132"/>
-      <c r="L134" s="132"/>
-      <c r="M134" s="132"/>
-      <c r="N134" s="132"/>
-      <c r="O134" s="132"/>
-      <c r="P134" s="132"/>
-      <c r="Q134" s="132"/>
-      <c r="R134" s="132"/>
-      <c r="S134" s="132"/>
-      <c r="T134" s="132"/>
-      <c r="U134" s="132"/>
-      <c r="V134" s="132"/>
-      <c r="W134" s="132"/>
-      <c r="X134" s="132"/>
-      <c r="Y134" s="132"/>
-      <c r="Z134" s="132"/>
-      <c r="AA134" s="132"/>
-      <c r="AB134" s="132"/>
-      <c r="AC134" s="132"/>
-      <c r="AD134" s="130"/>
-      <c r="AE134" s="130"/>
-      <c r="AF134" s="130"/>
-      <c r="AG134" s="130"/>
-      <c r="AH134" s="130"/>
-      <c r="AI134" s="130"/>
-      <c r="AJ134" s="113"/>
+    <row r="131" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="29"/>
+      <c r="B131" s="106"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="G131" s="132"/>
+      <c r="H131" s="132"/>
+      <c r="I131" s="132"/>
+      <c r="J131" s="132"/>
+      <c r="K131" s="132"/>
+      <c r="L131" s="132"/>
+      <c r="M131" s="132"/>
+      <c r="N131" s="132"/>
+      <c r="O131" s="132"/>
+      <c r="P131" s="132"/>
+      <c r="Q131" s="132"/>
+      <c r="R131" s="132"/>
+      <c r="S131" s="132"/>
+      <c r="T131" s="132"/>
+      <c r="U131" s="132"/>
+      <c r="V131" s="132"/>
+      <c r="W131" s="132"/>
+      <c r="X131" s="132"/>
+      <c r="Y131" s="132"/>
+      <c r="Z131" s="132"/>
+      <c r="AA131" s="132"/>
+      <c r="AB131" s="132"/>
+      <c r="AC131" s="132"/>
+      <c r="AD131" s="130"/>
+      <c r="AE131" s="130"/>
+      <c r="AF131" s="130"/>
+      <c r="AG131" s="130"/>
+      <c r="AH131" s="130"/>
+      <c r="AI131" s="130"/>
+      <c r="AJ131" s="113"/>
+    </row>
+    <row r="132" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E132" s="109"/>
+      <c r="AJ132" s="108"/>
+      <c r="AK132" s="108"/>
+      <c r="AL132" s="108"/>
+      <c r="AM132" s="108"/>
+      <c r="AN132" s="108"/>
+      <c r="AO132" s="108"/>
+      <c r="AP132" s="108"/>
+      <c r="AQ132" s="108"/>
+      <c r="AR132" s="108"/>
+      <c r="AS132" s="108"/>
+      <c r="AT132" s="108"/>
+      <c r="AU132" s="108"/>
+      <c r="AV132" s="108"/>
+      <c r="AW132" s="108"/>
+      <c r="AX132" s="108"/>
+      <c r="AY132" s="108"/>
+      <c r="AZ132" s="108"/>
+      <c r="BA132" s="108"/>
+      <c r="BB132" s="108"/>
+      <c r="BC132" s="108"/>
+      <c r="BD132" s="108"/>
+      <c r="BE132" s="108"/>
+      <c r="BF132" s="108"/>
+    </row>
+    <row r="133" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="29"/>
+      <c r="B133" s="106"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="G133" s="132"/>
+      <c r="H133" s="132"/>
+      <c r="I133" s="132"/>
+      <c r="J133" s="132"/>
+      <c r="K133" s="132"/>
+      <c r="L133" s="132"/>
+      <c r="M133" s="132"/>
+      <c r="N133" s="132"/>
+      <c r="O133" s="132"/>
+      <c r="P133" s="132"/>
+      <c r="Q133" s="132"/>
+      <c r="R133" s="132"/>
+      <c r="S133" s="132"/>
+      <c r="T133" s="132"/>
+      <c r="U133" s="132"/>
+      <c r="V133" s="132"/>
+      <c r="W133" s="132"/>
+      <c r="X133" s="132"/>
+      <c r="Y133" s="132"/>
+      <c r="Z133" s="132"/>
+      <c r="AA133" s="132"/>
+      <c r="AB133" s="132"/>
+      <c r="AC133" s="132"/>
+      <c r="AD133" s="130"/>
+      <c r="AE133" s="130"/>
+      <c r="AF133" s="130"/>
+      <c r="AG133" s="130"/>
+      <c r="AH133" s="130"/>
+      <c r="AI133" s="130"/>
+      <c r="AJ133" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -10501,19 +10639,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44">
       <formula1>"-,有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC52 P59:U59" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC52 P59:U59">
       <formula1>"-,○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I52">
       <formula1>画面項目種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K59:N59" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K59:N59">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O59" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O59">
       <formula1>"I,O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10526,14 +10664,14 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="33" man="1"/>
     <brk id="73" max="16383" man="1"/>
-    <brk id="119" max="16383" man="1"/>
+    <brk id="118" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>データ!$D$2:$D$4</xm:f>
           </x14:formula1>
@@ -10546,7 +10684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10554,13 +10692,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="28"/>
+    <col min="3" max="3" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
